--- a/regionseng/4/employment and unemployment/employment and unemployment.xlsx
+++ b/regionseng/4/employment and unemployment/employment and unemployment.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 20th International Conference of Labour Statisticians;
-The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
   </si>
   <si>
     <r>
@@ -124,6 +120,10 @@
       </rPr>
       <t>percentage</t>
     </r>
+  </si>
+  <si>
+    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 19th and 20th International Conferences of Labour Statisticians;
+The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -385,7 +385,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -460,14 +459,45 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -795,82 +825,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="4" customWidth="1"/>
     <col min="2" max="16" width="8.7109375" style="4" customWidth="1"/>
-    <col min="17" max="20" width="8.7109375" customWidth="1"/>
+    <col min="17" max="21" width="8.7109375" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" ht="15" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:16384" ht="15" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:16384" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="4"/>
+      <c r="A3" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
@@ -17236,29 +17269,29 @@
       <c r="XFD3" s="4"/>
     </row>
     <row r="4" spans="1:16384" ht="15" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="4"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
@@ -17266,839 +17299,914 @@
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="O5"/>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:16384" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15">
         <v>2003</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>2004</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>2005</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>2006</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>2007</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>2008</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>2009</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>2010</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>2011</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>2012</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>2013</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="15">
         <v>2014</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="15">
         <v>2015</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="15">
         <v>2016</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="15">
         <v>2017</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="15">
         <v>2018</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="15">
         <v>2019</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="15">
         <v>2020</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="15">
         <v>2021</v>
+      </c>
+      <c r="U6" s="15">
+        <v>2022</v>
+      </c>
+      <c r="V6" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="7" spans="1:16384" ht="15" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>263.12365893950448</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>265.14699999999715</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>265.62814924373464</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>266.62574545625978</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>268.21526800873028</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>268.33312114290959</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>268.46999999999485</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>268.29099999999954</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>268.29220050893201</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <v>267.70916961321802</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <v>268.93186259703208</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="17">
         <v>269.46083223690738</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <v>271.6900411346794</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="17">
         <v>273.42585309779156</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="17">
         <v>268.67215586037196</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <v>272.97488792394097</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="16">
         <v>268.54852348640503</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="16">
         <v>268.81414759622851</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="16">
         <v>266.27167379318979</v>
+      </c>
+      <c r="U7" s="38">
+        <v>268.20986052605508</v>
+      </c>
+      <c r="V7" s="48">
+        <v>274.00595992537058</v>
       </c>
     </row>
     <row r="8" spans="1:16384" ht="15" customHeight="1">
-      <c r="A8" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="A8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="18">
         <v>183.50649526778025</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>159.75808562823812</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>149.30597873411816</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>133.6934763690912</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>128.51975861401283</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>158.85682484820745</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>172.51976572188818</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <v>160.00013568259078</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>171.26031064715892</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>176.74786633166033</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <v>178.69904941444742</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <v>177.26905857106198</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>181.06315636864002</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <v>171.66459847984436</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="19">
         <v>166.2393253547761</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="19">
         <v>162.08522492926434</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="18">
         <v>155.37770282770964</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="18">
         <v>155.06637474046556</v>
       </c>
-      <c r="T8" s="19">
+      <c r="T8" s="18">
         <v>149.37222409398143</v>
+      </c>
+      <c r="U8" s="39">
+        <v>151.71390386498527</v>
+      </c>
+      <c r="V8" s="49">
+        <v>158.99382594673176</v>
       </c>
     </row>
     <row r="9" spans="1:16384" ht="15" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>156.80081707758819</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>128.31047774989062</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>115.51128671030902</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>104.1837781297382</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>90.192489544095082</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>113.63495814565655</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>126.76781612260744</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <v>100.72300764630542</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <v>103.51155496563017</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <v>110.2610165000936</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <v>103.40394145662944</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <v>108.84651351766747</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="19">
         <v>117.38176556935929</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="19">
         <v>118.044169139953</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="19">
         <v>128.85582447110937</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="19">
         <v>132.3752996284363</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="18">
         <v>128.06772165003088</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="18">
         <v>126.11430068212034</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="18">
         <v>120.71753138414518</v>
+      </c>
+      <c r="U9" s="39">
+        <v>123.841747590674</v>
+      </c>
+      <c r="V9" s="49">
+        <v>139.57759529157624</v>
       </c>
     </row>
     <row r="10" spans="1:16384" ht="15" customHeight="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>53.819626145323795</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>49.407084030610285</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>47.519136694411948</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>44.970145561748701</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>38.307753297683789</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>46.775227335395307</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <v>50.208043200828236</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="18">
         <v>79.664898273320986</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="18">
         <v>80.637190410084827</v>
+      </c>
+      <c r="U10" s="39">
+        <v>81.185697054456682</v>
+      </c>
+      <c r="V10" s="49">
+        <v>94.109780845544705</v>
       </c>
     </row>
     <row r="11" spans="1:16384" ht="15" customHeight="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>102.98119093226457</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>78.628366787776855</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>67.992150015897323</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>58.896801078755885</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>51.884736246411066</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <v>66.80372267202273</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <v>76.534373720143449</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="19" t="s">
+      <c r="R11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="18">
         <v>46.377817318447917</v>
       </c>
-      <c r="T11" s="19">
+      <c r="T11" s="18">
         <v>39.86729908475693</v>
+      </c>
+      <c r="U11" s="39">
+        <v>42.348008552107416</v>
+      </c>
+      <c r="V11" s="49">
+        <v>45.382400215261562</v>
       </c>
     </row>
     <row r="12" spans="1:16384" ht="15" customHeight="1">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>0</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>0.2750269315038335</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>0</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>0.31683148923297044</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>5.6008138237229332E-2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>2.5399201636663708E-2</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="Q12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="R12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="18">
         <v>7.1585090351851122E-2</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="18">
         <v>0.21304188930339885</v>
+      </c>
+      <c r="U12" s="39">
+        <v>0.30804198410926947</v>
+      </c>
+      <c r="V12" s="49">
+        <v>8.541423077028476E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16384" ht="15" customHeight="1">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>26.705678190191971</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>31.447607878349618</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>33.79469202380983</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>29.509698239352655</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>38.327269069917044</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <v>45.221866702551246</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>45.751949599281389</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <v>59.277128036285376</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <v>67.748755681528749</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="19">
         <v>66.48684983156673</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="19">
         <v>75.295107957817976</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="19">
         <v>68.422545053394501</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="19">
         <v>63.68139079928072</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="19">
         <v>53.620429339891373</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="19">
         <v>37.383500883666713</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="19">
         <v>29.709925300828044</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R13" s="18">
         <v>27.30998117767875</v>
       </c>
-      <c r="S13" s="19">
+      <c r="S13" s="18">
         <v>28.952074058344987</v>
       </c>
-      <c r="T13" s="19">
+      <c r="T13" s="18">
         <v>28.654692709836247</v>
+      </c>
+      <c r="U13" s="39">
+        <v>27.872156274311468</v>
+      </c>
+      <c r="V13" s="49">
+        <v>19.416230655155736</v>
       </c>
     </row>
     <row r="14" spans="1:16384" ht="15" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>79.617163671722352</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>105.38891437176036</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>116.32217050961385</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>132.93226908716929</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>139.69550939471887</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <v>109.47629629470593</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <v>95.950234278113484</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <v>108.29086431740876</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <v>97.031889861773081</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <v>90.96130328155769</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <v>90.232813182584664</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <v>92.191773665845417</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <v>90.626884766039396</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="19">
         <v>101.76125461794719</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="19">
         <v>102.43283050559587</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="19">
         <v>110.88966299467663</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="18">
         <v>113.1708206586954</v>
       </c>
-      <c r="S14" s="19">
+      <c r="S14" s="18">
         <v>113.74777285576123</v>
       </c>
-      <c r="T14" s="19">
+      <c r="T14" s="18">
         <v>116.89944969920835</v>
+      </c>
+      <c r="U14" s="39">
+        <v>116.49595666107119</v>
+      </c>
+      <c r="V14" s="49">
+        <v>115.01213397863904</v>
       </c>
     </row>
     <row r="15" spans="1:16384" ht="15" customHeight="1">
-      <c r="A15" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="22">
+      <c r="A15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="21">
         <v>14.55298797528771</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>19.684517221575344</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>22.634520271951676</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <v>22.072653835318363</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>29.822082988053577</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>28.467059407590529</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <v>26.519830587433198</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="21">
         <v>37.048173605227248</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>39.558935415636917</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="23">
         <v>37.61677649155142</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="23">
         <v>42.135147447365512</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="23">
         <v>38.598131904652675</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="23">
         <v>35.17081667880958</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="23">
         <v>31.23557787378456</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="23">
         <v>22.487760223933485</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="23">
         <v>18.329817115529043</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="21">
         <v>17.576512382836157</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="21">
         <v>18.67076218606519</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="21">
         <v>19.183414375491523</v>
+      </c>
+      <c r="U15" s="40">
+        <v>18.371524009503922</v>
+      </c>
+      <c r="V15" s="50">
+        <v>12.211940016878909</v>
       </c>
     </row>
     <row r="16" spans="1:16384" ht="15" customHeight="1">
-      <c r="A16" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="22">
+      <c r="A16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="21">
         <v>69.741541299397468</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>60.25264688200879</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>56.208643232731411</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>50.142748270730578</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>47.916645300680486</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="21">
         <v>59.201348000421852</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="21">
         <v>64.260351518565002</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="21">
         <v>59.636788294274155</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>63.833503293159396</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="23">
         <v>66.022343047502957</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="23">
         <v>66.447704518452809</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="23">
         <v>65.786577254837809</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="23">
         <v>66.643280560616972</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="23">
         <v>62.782870213244983</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="23">
         <v>61.874415241291373</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="23">
         <v>59.377339125211464</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="21">
         <v>57.858334430788801</v>
       </c>
-      <c r="S16" s="22">
+      <c r="S16" s="21">
         <v>57.685347340193772</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="21">
         <v>56.097677220445597</v>
       </c>
+      <c r="U16" s="40">
+        <v>56.565371447351062</v>
+      </c>
+      <c r="V16" s="50">
+        <v>58.02568162752226</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="25">
+    <row r="17" spans="1:24" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="24">
         <v>59.592063180315812</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>48.392204230065587</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <v>43.486086485630096</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="24">
         <v>39.074913021417004</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>33.626903574020012</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <v>42.348465095047487</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="24">
         <v>47.218615160952758</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <v>37.542447434429633</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <v>38.581648951880005</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="26">
         <v>41.186865828838428</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="26">
         <v>38.449866244212963</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="27">
         <v>40.39418739045928</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="27">
         <v>43.204294525897623</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O17" s="27">
         <v>43.172277896389758</v>
       </c>
-      <c r="P17" s="28">
+      <c r="P17" s="27">
         <v>47.960245101868807</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="27">
         <v>48.49358145549273</v>
       </c>
-      <c r="R17" s="25">
+      <c r="R17" s="24">
         <v>47.688857115058447</v>
       </c>
-      <c r="S17" s="25">
+      <c r="S17" s="24">
         <v>46.915053322100427</v>
       </c>
-      <c r="T17" s="25">
+      <c r="T17" s="24">
         <v>45.33622734422179</v>
       </c>
+      <c r="U17" s="41">
+        <v>46.17345065083596</v>
+      </c>
+      <c r="V17" s="51">
+        <v>50.939620192784197</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1">
+    <row r="18" spans="1:24" ht="15" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:23" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:24" s="47" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+    </row>
+    <row r="20" spans="1:24" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
     </row>
-    <row r="20" spans="1:23" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+    <row r="21" spans="1:24" customFormat="1">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
     </row>
-    <row r="21" spans="1:23" customFormat="1">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+    <row r="22" spans="1:24">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
     </row>
-    <row r="22" spans="1:23">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -18113,12 +18221,6 @@
       <c r="M23"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A19:T19"/>
-  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
